--- a/input_file.xlsx
+++ b/input_file.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NandhiniRamachandran\Documents\softwares\Windstream\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513E49FE-810F-4C61-8244-28B36B7318C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631DC87E-C2CE-465B-AC2A-66A452E47FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7344" yWindow="0" windowWidth="14904" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Input_config" sheetId="1" r:id="rId1"/>
+    <sheet name="input_config" sheetId="1" r:id="rId1"/>
     <sheet name="input_config_2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -384,7 +384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -509,7 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59326E29-94B9-4B73-A1C5-7783227550FF}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/input_file.xlsx
+++ b/input_file.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NandhiniRamachandran\Documents\softwares\Windstream\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\configuration_extraction_automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631DC87E-C2CE-465B-AC2A-66A452E47FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102DDD99-B8E5-4432-BE92-8EB69B64ADFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7344" yWindow="0" windowWidth="14904" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input_config" sheetId="1" r:id="rId1"/>
@@ -382,18 +382,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -401,7 +401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>31996</v>
       </c>
@@ -409,7 +409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>31868</v>
       </c>
@@ -417,7 +417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>30686</v>
       </c>
@@ -425,7 +425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>30685</v>
       </c>
@@ -433,7 +433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>27915</v>
       </c>
@@ -441,7 +441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>27916</v>
       </c>
@@ -449,7 +449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>27914</v>
       </c>
@@ -457,7 +457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>27917</v>
       </c>
@@ -465,7 +465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>27913</v>
       </c>
@@ -473,12 +473,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>31996</v>
       </c>
@@ -486,7 +486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>99999</v>
       </c>
@@ -494,9 +494,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>31996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>30863</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -507,28 +515,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59326E29-94B9-4B73-A1C5-7783227550FF}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>31868</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
